--- a/output.xlsx
+++ b/output.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
-  <si>
-    <t>index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>color</t>
   </si>
@@ -25,6 +22,12 @@
     <t>coords</t>
   </si>
   <si>
+    <t>Picked Up</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>red</t>
   </si>
   <si>
@@ -34,13 +37,13 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>[4710, 2975, 4889, 3234]</t>
+    <t>[4667, 2970, 4889, 3276]</t>
   </si>
   <si>
     <t>[1026, 324, 1215, 601]</t>
   </si>
   <si>
-    <t>[4143, 2806, 5088, 3209]</t>
+    <t>[4131, 2806, 5088, 3215]</t>
   </si>
   <si>
     <t>[2071, 1613, 2258, 1684]</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,131 +435,134 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="b">
         <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
